--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E70385C-B99D-42A8-AA8B-7FBF111B8961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9544C3-8969-46F7-BF89-2FF0FC1BBAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
+    <sheet name="database" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -37,6 +38,18 @@
   </si>
   <si>
     <t>admin\pages\slider\list.blade.php</t>
+  </si>
+  <si>
+    <t>Create Database</t>
+  </si>
+  <si>
+    <t>Insert data</t>
+  </si>
+  <si>
+    <t>me-docs\database\news.sql</t>
+  </si>
+  <si>
+    <t>public\images\slider</t>
   </si>
 </sst>
 </file>
@@ -272,6 +285,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEED983-08FA-44D4-9090-0E11F16ED7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="13009524" cy="6352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>113524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EE463D-7EF4-4B85-B87C-013F158A60A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429500"/>
+          <a:ext cx="13009524" cy="6209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218743</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>18571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8D02F4-0613-42FC-9A0F-D8161C4453C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14097000"/>
+          <a:ext cx="2657143" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -537,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -567,4 +717,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A303FFE2-9906-4C34-A561-B83E9084B904}">
+  <dimension ref="A2:B74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9544C3-8969-46F7-BF89-2FF0FC1BBAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C676B-E939-4E22-9332-05849AD34003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
     <sheet name="database" sheetId="2" r:id="rId2"/>
+    <sheet name="connect db" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -50,6 +51,15 @@
   </si>
   <si>
     <t>public\images\slider</t>
+  </si>
+  <si>
+    <t>proj_news\proj\.env</t>
+  </si>
+  <si>
+    <t>SliderController.php</t>
+  </si>
+  <si>
+    <t>Access browser to test</t>
   </si>
 </sst>
 </file>
@@ -422,6 +432,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408609</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E1C7B1-E6D9-4879-82E1-5FA697FA9357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7723809" cy="4485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370438</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97448DCB-BD2A-4317-8A7C-FAEB02C21562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="8295238" cy="4371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47009</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F5CA06-3929-43E5-9DE6-8C31C221E844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="4923809" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -723,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A303FFE2-9906-4C34-A561-B83E9084B904}">
   <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
@@ -753,4 +900,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91CAAC1-059E-4D1E-B934-7002A5FC4C84}">
+  <dimension ref="A2:A53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C676B-E939-4E22-9332-05849AD34003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661D3B0-9887-4072-A1DE-4B48BC662496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
     <sheet name="database" sheetId="2" r:id="rId2"/>
     <sheet name="connect db" sheetId="3" r:id="rId3"/>
+    <sheet name="init model" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Access browser to test</t>
+  </si>
+  <si>
+    <t>SliderModel.php</t>
   </si>
 </sst>
 </file>
@@ -558,6 +562,55 @@
         <a:xfrm>
           <a:off x="609600" y="10096500"/>
           <a:ext cx="4923809" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65676</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088C0637-55B0-4C02-A787-32B2DDDAAB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7990476" cy="3485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91CAAC1-059E-4D1E-B934-7002A5FC4C84}">
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
@@ -931,4 +984,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E27CD9-8EE9-4405-B381-1E5C104ED65F}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4661D3B0-9887-4072-A1DE-4B48BC662496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6061086B-16E0-4FBD-9233-0A569FDA0D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
     <sheet name="database" sheetId="2" r:id="rId2"/>
     <sheet name="connect db" sheetId="3" r:id="rId3"/>
     <sheet name="init model" sheetId="4" r:id="rId4"/>
+    <sheet name="all" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>SliderModel.php</t>
+  </si>
+  <si>
+    <t>app\Models\SliderModel.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\SliderController.php</t>
+  </si>
+  <si>
+    <t>Access url to test http://proj_news.xyz/admin/slider</t>
   </si>
 </sst>
 </file>
@@ -611,6 +621,143 @@
         <a:xfrm>
           <a:off x="609600" y="381000"/>
           <a:ext cx="7990476" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103771</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49296937-C155-4572-A63C-071C2E797506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8028571" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17981</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC76D4EC-BC90-47B6-BC55-F2AE8F0A2E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="8552381" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>164495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0D4C60-8C4D-4BDE-8A71-39517C83F8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10477500"/>
+          <a:ext cx="11306175" cy="5498495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E27CD9-8EE9-4405-B381-1E5C104ED65F}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1005,4 +1152,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA1161-8324-4E64-A23B-4BCE7BE24C6B}">
+  <dimension ref="A2:A55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6061086B-16E0-4FBD-9233-0A569FDA0D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA03EC-09BC-4976-B523-CC821670D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="connect db" sheetId="3" r:id="rId3"/>
     <sheet name="init model" sheetId="4" r:id="rId4"/>
     <sheet name="all" sheetId="5" r:id="rId5"/>
+    <sheet name="optimize model" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -74,6 +75,9 @@
   </si>
   <si>
     <t>Access url to test http://proj_news.xyz/admin/slider</t>
+  </si>
+  <si>
+    <t>access browser to check</t>
   </si>
 </sst>
 </file>
@@ -758,6 +762,143 @@
         <a:xfrm>
           <a:off x="609600" y="10477500"/>
           <a:ext cx="11306175" cy="5498495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246628</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81080CB-0CE8-440D-88A9-40F4B5A4CE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8171428" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179733</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>94595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595A2037-6BF6-4A2C-A8E6-467DF307FBB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="9933333" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2C3F4D-E383-4358-AEC3-E380DCB33B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10858501"/>
+          <a:ext cx="11401425" cy="5532302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA1161-8324-4E64-A23B-4BCE7BE24C6B}">
   <dimension ref="A2:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -1183,4 +1324,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4437A7-4499-4F53-9268-AD551EB49303}">
+  <dimension ref="A2:A57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA03EC-09BC-4976-B523-CC821670D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414D9CA7-D9E1-4978-9FEA-0D1D35A71A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="init model" sheetId="4" r:id="rId4"/>
     <sheet name="all" sheetId="5" r:id="rId5"/>
     <sheet name="optimize model" sheetId="6" r:id="rId6"/>
+    <sheet name="debugbar" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -78,6 +79,15 @@
   </si>
   <si>
     <t>access browser to check</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>composer require barryvdh/laravel-debugbar:3.2.3 --dev</t>
+  </si>
+  <si>
+    <t>.env</t>
   </si>
 </sst>
 </file>
@@ -899,6 +909,231 @@
         <a:xfrm>
           <a:off x="609600" y="10858501"/>
           <a:ext cx="11401425" cy="5532302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189257</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B97385-9DBA-44DD-AFB4-1F97094C14FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="9942857" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570514</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77182A0F-1343-4F4B-AEA9-462C906C2E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="7885714" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>226975</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>94426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7745EF-C682-4E6D-B6B4-7B5BAF7FBC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="16744950"/>
+          <a:ext cx="13000000" cy="6590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122209</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>8738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE58E373-23F4-4C2D-9F56-E841D4F33A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="12923809" cy="6295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>141257</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>56476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC976040-2CD6-4BD4-8EA9-FA528888A30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23622000"/>
+          <a:ext cx="12942857" cy="5390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1330,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4437A7-4499-4F53-9268-AD551EB49303}">
   <dimension ref="A2:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
@@ -1355,4 +1590,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270E1303-02F5-4066-B485-B597A5961FE8}">
+  <dimension ref="A2:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
+++ b/me-docs/8.xay-dung-chuc-nang-lay-danh-sach-slider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414D9CA7-D9E1-4978-9FEA-0D1D35A71A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36B72AE-DB01-42CC-B3E0-D597E6C51CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="all" sheetId="5" r:id="rId5"/>
     <sheet name="optimize model" sheetId="6" r:id="rId6"/>
     <sheet name="debugbar" sheetId="7" r:id="rId7"/>
+    <sheet name="select" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>top_nav.blade.php</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>.env</t>
+  </si>
+  <si>
+    <t>Access browser</t>
   </si>
 </sst>
 </file>
@@ -1134,6 +1138,143 @@
         <a:xfrm>
           <a:off x="609600" y="23622000"/>
           <a:ext cx="12942857" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198552</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>75762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C101BCE-BB40-487E-A0CC-21D82F8F17C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11780952" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284495</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2264CC77-47F4-4CDC-9E13-2C66AFFC779B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="10038095" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>84114</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>8952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D684D38-B534-44F0-9F89-CABBC949DB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8001000"/>
+          <a:ext cx="12885714" cy="4580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270E1303-02F5-4066-B485-B597A5961FE8}">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
@@ -1621,4 +1762,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4213B1A-BED2-4B9A-B98B-CE1C74E4EE26}">
+  <dimension ref="A2:A42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>